--- a/Stop Signal Task (Standard + Proactive) - (2-1-1)/Practice.xlsx
+++ b/Stop Signal Task (Standard + Proactive) - (2-1-1)/Practice.xlsx
@@ -37,19 +37,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Raleway"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,7 +68,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -359,7 +353,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
